--- a/COPsyncPresenceMap.WPF/COPsyncMaps/Massachusetts/Massachusetts.xlsx
+++ b/COPsyncPresenceMap.WPF/COPsyncMaps/Massachusetts/Massachusetts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Downloads\COPsyncMaps\Massachusetts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Documents\COPsyncMaps\Massachusetts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -647,7 +647,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E15">
-    <sortCondition ref="A3"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/COPsyncPresenceMap.WPF/COPsyncMaps/Massachusetts/Massachusetts.xlsx
+++ b/COPsyncPresenceMap.WPF/COPsyncMaps/Massachusetts/Massachusetts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Documents\COPsyncMaps\Massachusetts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Downloads\COPsyncMaps\Massachusetts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -647,7 +647,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E15">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
